--- a/한자의지혜.xlsx
+++ b/한자의지혜.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test\Documents\GitHub\Private-Quizlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AED923B-C244-46C2-9B82-78C73F487061}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECD0E52-9435-4326-8D2E-1C07E6825559}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,127 +25,148 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>加減 가감</t>
-  </si>
-  <si>
-    <t>改惡 개악</t>
-  </si>
-  <si>
-    <t>改悛 개전</t>
-  </si>
-  <si>
-    <t>更新 갱신</t>
-  </si>
-  <si>
-    <t>更新 경신</t>
-  </si>
-  <si>
-    <t>決裂 결렬</t>
-  </si>
-  <si>
-    <t>可決 가결</t>
-  </si>
-  <si>
-    <t>開拓 개척</t>
-  </si>
-  <si>
-    <t>檢索 검색</t>
-  </si>
-  <si>
-    <t>缺陷 결함</t>
-  </si>
-  <si>
-    <t>難解 난해</t>
-  </si>
-  <si>
-    <t>强度 강도</t>
-  </si>
-  <si>
-    <t>改善 개선</t>
-  </si>
-  <si>
-    <t>權勢 권세</t>
-  </si>
-  <si>
-    <t>權利 권리</t>
-  </si>
-  <si>
-    <t>缺如 결여</t>
-  </si>
-  <si>
-    <t>告發 고발</t>
-  </si>
-  <si>
-    <t>可憐 가련</t>
-  </si>
-  <si>
-    <t>干涉 간섭</t>
-  </si>
-  <si>
-    <t>强烈 강렬</t>
-  </si>
-  <si>
-    <t>介入 개입</t>
-  </si>
-  <si>
-    <t>改革 개혁</t>
-  </si>
-  <si>
-    <t>見聞 견문</t>
-  </si>
-  <si>
-    <t>商品 상품</t>
-  </si>
-  <si>
-    <t>日沒 일몰</t>
-  </si>
-  <si>
     <t>誇張 과장</t>
   </si>
   <si>
-    <t>龜鑑 귀감</t>
-  </si>
-  <si>
-    <t>龜裂 균열</t>
-  </si>
-  <si>
-    <t>樂觀 낙관</t>
-  </si>
-  <si>
-    <t>論述 논술</t>
-  </si>
-  <si>
-    <t>考察 고찰</t>
-  </si>
-  <si>
-    <t>檢察 검찰</t>
-  </si>
-  <si>
-    <t>公正 공정</t>
-  </si>
-  <si>
-    <t>受賞 수상</t>
-  </si>
-  <si>
-    <t>授賞 수상</t>
-  </si>
-  <si>
-    <t>賃借 임차</t>
-  </si>
-  <si>
-    <t>賃貸 임대</t>
-  </si>
-  <si>
-    <t>論證 논증</t>
-  </si>
-  <si>
-    <t>貸出 대출</t>
+    <t>檢査 검사</t>
+  </si>
+  <si>
+    <t>檢事 검사</t>
+  </si>
+  <si>
+    <t>陶冶 도야</t>
+  </si>
+  <si>
+    <t>解決 해결</t>
+  </si>
+  <si>
+    <t>免職 면직</t>
+  </si>
+  <si>
+    <t>常識 상식</t>
+  </si>
+  <si>
+    <t>汨沒 골몰</t>
+  </si>
+  <si>
+    <t>陷沒 함몰</t>
+  </si>
+  <si>
+    <t>誇示 과시</t>
+  </si>
+  <si>
+    <t>句讀點 구두점</t>
+  </si>
+  <si>
+    <t>規則 규칙</t>
+  </si>
+  <si>
+    <t>買賣 매매</t>
+  </si>
+  <si>
+    <t>賣却 매각</t>
+  </si>
+  <si>
+    <t>漏泄 누설</t>
+  </si>
+  <si>
+    <t>博學 박학</t>
+  </si>
+  <si>
+    <t>輕薄 경박</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白眼視 백안시 </t>
+  </si>
+  <si>
+    <t>度外視 도외시</t>
+  </si>
+  <si>
+    <t>謁見 알현</t>
+  </si>
+  <si>
+    <t>歷史 역사</t>
+  </si>
+  <si>
+    <t>惡寒 오한</t>
+  </si>
+  <si>
+    <t>長廣舌 장광설</t>
+  </si>
+  <si>
+    <t>再考 재고</t>
+  </si>
+  <si>
+    <t>民族 민족</t>
+  </si>
+  <si>
+    <t>全般 전반</t>
+  </si>
+  <si>
+    <t>拒否 거부</t>
+  </si>
+  <si>
+    <t>說明 설명</t>
+  </si>
+  <si>
+    <t>收益 수익</t>
+  </si>
+  <si>
+    <t>惡化 악화</t>
+  </si>
+  <si>
+    <t>嗚咽 오열</t>
+  </si>
+  <si>
+    <t>咽喉 인후</t>
+  </si>
+  <si>
+    <t>類推 유추</t>
+  </si>
+  <si>
+    <t>推進 추진</t>
+  </si>
+  <si>
+    <t>類型 유형</t>
+  </si>
+  <si>
+    <t xml:space="preserve">引上 인상 </t>
+  </si>
+  <si>
+    <t>一切 일절</t>
+  </si>
+  <si>
+    <t>一切 일체</t>
+  </si>
+  <si>
+    <t>前進 전진</t>
+  </si>
+  <si>
+    <t>處罰 처벌</t>
+  </si>
+  <si>
+    <t>憎惡 증오</t>
+  </si>
+  <si>
+    <t>借用 차용</t>
+  </si>
+  <si>
+    <t>體系 체계</t>
+  </si>
+  <si>
+    <t>志向 지향</t>
+  </si>
+  <si>
+    <t>止揚 지양</t>
+  </si>
+  <si>
+    <t>參與 참여</t>
   </si>
 </sst>
 </file>
@@ -475,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A40"/>
+  <dimension ref="A1:A47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A40"/>
+      <selection activeCell="A2" sqref="A2:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -490,52 +511,52 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
@@ -681,6 +702,41 @@
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
